--- a/Project_203/src/mq/framework/DataDriven/Excel/InputData.xlsx
+++ b/Project_203/src/mq/framework/DataDriven/Excel/InputData.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5010" tabRatio="847" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
     <sheet name="numbers" sheetId="2" r:id="rId2"/>
     <sheet name="date" sheetId="3" r:id="rId3"/>
+    <sheet name="multiple" sheetId="4" r:id="rId4"/>
+    <sheet name="multiplecells" sheetId="5" r:id="rId5"/>
+    <sheet name="datacombinations" sheetId="6" r:id="rId6"/>
+    <sheet name="condition" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="96">
   <si>
     <t>Username</t>
   </si>
@@ -67,6 +71,243 @@
   </si>
   <si>
     <t>Samsung</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Avinash1</t>
+  </si>
+  <si>
+    <t>Avi@12</t>
+  </si>
+  <si>
+    <t>Avinash2</t>
+  </si>
+  <si>
+    <t>Avi@13</t>
+  </si>
+  <si>
+    <t>Avinash3</t>
+  </si>
+  <si>
+    <t>Avi@14</t>
+  </si>
+  <si>
+    <t>Avinash4</t>
+  </si>
+  <si>
+    <t>Avi@15</t>
+  </si>
+  <si>
+    <t>Avinash5</t>
+  </si>
+  <si>
+    <t>Avi@16</t>
+  </si>
+  <si>
+    <t>Avinash6</t>
+  </si>
+  <si>
+    <t>Avi@17</t>
+  </si>
+  <si>
+    <t>Avinash7</t>
+  </si>
+  <si>
+    <t>Avi@18</t>
+  </si>
+  <si>
+    <t>Avinash8</t>
+  </si>
+  <si>
+    <t>Avi@19</t>
+  </si>
+  <si>
+    <t>Avinash9</t>
+  </si>
+  <si>
+    <t>Avi@20</t>
+  </si>
+  <si>
+    <t>Avinash10</t>
+  </si>
+  <si>
+    <t>Avi@21</t>
+  </si>
+  <si>
+    <t>Avinash11</t>
+  </si>
+  <si>
+    <t>Avi@22</t>
+  </si>
+  <si>
+    <t>Avinash12</t>
+  </si>
+  <si>
+    <t>Avi@23</t>
+  </si>
+  <si>
+    <t>Avinash13</t>
+  </si>
+  <si>
+    <t>Avi@24</t>
+  </si>
+  <si>
+    <t>Avinash14</t>
+  </si>
+  <si>
+    <t>Avi@25</t>
+  </si>
+  <si>
+    <t>Avinash15</t>
+  </si>
+  <si>
+    <t>Avi@26</t>
+  </si>
+  <si>
+    <t>Avinash16</t>
+  </si>
+  <si>
+    <t>Avi@27</t>
+  </si>
+  <si>
+    <t>Avinash17</t>
+  </si>
+  <si>
+    <t>Avi@28</t>
+  </si>
+  <si>
+    <t>Avinash18</t>
+  </si>
+  <si>
+    <t>Avi@29</t>
+  </si>
+  <si>
+    <t>Avinash19</t>
+  </si>
+  <si>
+    <t>Avi@30</t>
+  </si>
+  <si>
+    <t>Avinash20</t>
+  </si>
+  <si>
+    <t>Avi@31</t>
+  </si>
+  <si>
+    <t>StudentName</t>
+  </si>
+  <si>
+    <t>Avinash</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>Raju</t>
+  </si>
+  <si>
+    <t>Asha</t>
+  </si>
+  <si>
+    <t>jhony</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>BSC</t>
+  </si>
+  <si>
+    <t>MBA</t>
+  </si>
+  <si>
+    <t>MSC</t>
+  </si>
+  <si>
+    <t>B-Tec</t>
+  </si>
+  <si>
+    <t>M-Tec</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Avinash@gmail.com</t>
+  </si>
+  <si>
+    <t>Akash@gmail.com</t>
+  </si>
+  <si>
+    <t>Hari@gmail.com</t>
+  </si>
+  <si>
+    <t>Raju@gmail.com</t>
+  </si>
+  <si>
+    <t>Asha@gmail.com</t>
+  </si>
+  <si>
+    <t>jhony@gmail.com</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Rajesh</t>
+  </si>
+  <si>
+    <t>Shiva</t>
+  </si>
+  <si>
+    <t>1200012</t>
+  </si>
+  <si>
+    <t>Execution Status</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>OutPut</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -119,12 +360,21 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -422,7 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -558,4 +808,626 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2" display="Avi@12"/>
+    <hyperlink ref="B4" r:id="rId3" display="Avi@12"/>
+    <hyperlink ref="B5" r:id="rId4" display="Avi@12"/>
+    <hyperlink ref="B6" r:id="rId5" display="Avi@12"/>
+    <hyperlink ref="B7" r:id="rId6" display="Avi@12"/>
+    <hyperlink ref="B8" r:id="rId7" display="Avi@12"/>
+    <hyperlink ref="B9" r:id="rId8" display="Avi@12"/>
+    <hyperlink ref="B10" r:id="rId9" display="Avi@12"/>
+    <hyperlink ref="B11" r:id="rId10" display="Avi@12"/>
+    <hyperlink ref="B12" r:id="rId11" display="Avi@12"/>
+    <hyperlink ref="B13" r:id="rId12" display="Avi@12"/>
+    <hyperlink ref="B14" r:id="rId13" display="Avi@12"/>
+    <hyperlink ref="B15" r:id="rId14" display="Avi@12"/>
+    <hyperlink ref="B16" r:id="rId15" display="Avi@12"/>
+    <hyperlink ref="B17" r:id="rId16" display="Avi@12"/>
+    <hyperlink ref="B18" r:id="rId17" display="Avi@12"/>
+    <hyperlink ref="B19" r:id="rId18" display="Avi@12"/>
+    <hyperlink ref="B20" r:id="rId19" display="Avi@12"/>
+    <hyperlink ref="B21" r:id="rId20" display="Avi@12"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="14.25" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6">
+        <v>9030248855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2" display="Avi@12"/>
+    <hyperlink ref="B4" r:id="rId3" display="Avi@12"/>
+    <hyperlink ref="B5" r:id="rId4" display="Avi@12"/>
+    <hyperlink ref="B6" r:id="rId5" display="Avi@12"/>
+    <hyperlink ref="B7" r:id="rId6" display="Avi@12"/>
+    <hyperlink ref="B8" r:id="rId7" display="Avi@12"/>
+    <hyperlink ref="B9" r:id="rId8" display="Avi@12"/>
+    <hyperlink ref="B10" r:id="rId9" display="Avi@12"/>
+    <hyperlink ref="B11" r:id="rId10" display="Avi@12"/>
+    <hyperlink ref="B12" r:id="rId11" display="Avi@12"/>
+    <hyperlink ref="B13" r:id="rId12" display="Avi@12"/>
+    <hyperlink ref="B14" r:id="rId13" display="Avi@12"/>
+    <hyperlink ref="B15" r:id="rId14" display="Avi@12"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project_203/src/mq/framework/DataDriven/Excel/InputData.xlsx
+++ b/Project_203/src/mq/framework/DataDriven/Excel/InputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5010" tabRatio="847" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5010" tabRatio="847" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,16 @@
     <sheet name="multiplecells" sheetId="5" r:id="rId5"/>
     <sheet name="datacombinations" sheetId="6" r:id="rId6"/>
     <sheet name="condition" sheetId="7" r:id="rId7"/>
+    <sheet name="DP" sheetId="8" r:id="rId8"/>
+    <sheet name="DP1" sheetId="9" r:id="rId9"/>
+    <sheet name="Testcase1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="137">
   <si>
     <t>Username</t>
   </si>
@@ -308,6 +311,129 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>MQ123</t>
+  </si>
+  <si>
+    <t>MQ124</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>MQ201</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>64GB</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>32GB</t>
+  </si>
+  <si>
+    <t>not available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario </t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>CreatedON</t>
+  </si>
+  <si>
+    <t>lastUpadted date</t>
+  </si>
+  <si>
+    <t>Application URL</t>
+  </si>
+  <si>
+    <t>TestcaseName</t>
+  </si>
+  <si>
+    <t>ExpectedResult</t>
+  </si>
+  <si>
+    <t>ExecutionStatus</t>
+  </si>
+  <si>
+    <t>ScenarioType</t>
+  </si>
+  <si>
+    <t>Tc0013_Email_val_Using_invalid</t>
+  </si>
+  <si>
+    <t>qadarshan@gmail.com</t>
+  </si>
+  <si>
+    <t>That Microsoft account doesn't exist. Enter a different account or get a new one.</t>
+  </si>
+  <si>
+    <t>Tc0014_Email_val_using_WithoutDomain</t>
+  </si>
+  <si>
+    <t>sunilreddy.gajjala</t>
+  </si>
+  <si>
+    <t>Tc0015_Email_val_Blank_Email</t>
+  </si>
+  <si>
+    <t>Enter a valid email address, phone number, or Skype name.</t>
+  </si>
+  <si>
+    <t>Tc0016 _Email_val_Valid</t>
+  </si>
+  <si>
+    <t>sunilreddy.gajjala@outlook.com</t>
+  </si>
+  <si>
+    <t>//input[@id='i0118']</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>Tc0017_Email_val_MobileNum</t>
+  </si>
+  <si>
+    <t>Confirm your phone number</t>
+  </si>
+  <si>
+    <t>Tc0018_Email_val_usingSkypename</t>
+  </si>
+  <si>
+    <t>gajjala.sunilreddy</t>
+  </si>
+  <si>
+    <t>Enter password</t>
+  </si>
+  <si>
+    <t>Tc0019_Email_val_With_diff_domain_AlternateEmail</t>
+  </si>
+  <si>
+    <t>sunilreddy.gajjala@gmail.com</t>
+  </si>
+  <si>
+    <t>Tc0020_Email_val_Invalid_With_Special_Chars</t>
+  </si>
+  <si>
+    <t>%*^*(*&amp;*(</t>
+  </si>
+  <si>
+    <t>Tc0021_MobileNumber_With_Characters</t>
+  </si>
+  <si>
+    <t>9076hygh</t>
+  </si>
+  <si>
+    <t>The phone number you entered isn't valid. Your phone number can contain numbers, spaces, and these special characters: ( ) [ ] . - # * /</t>
   </si>
 </sst>
 </file>
@@ -330,7 +456,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +466,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,7 +498,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -374,6 +512,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -713,6 +859,501 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="38.25" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="11">
+        <v>9652680806</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="60">
+      <c r="A15" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
@@ -1191,7 +1832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1430,4 +2071,80 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>